--- a/meteoswiss_2025_Q2_15sp/Training_datasets_2025_Q2_15sp.xlsx
+++ b/meteoswiss_2025_Q2_15sp/Training_datasets_2025_Q2_15sp.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\meteoswiss.ch\mch\zue-home\zue\users\mmp\My Documents\Documents\modeles\paper\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\crb\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{450B9B8A-1480-4172-83E3-4A3276165351}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83715A74-4E2C-4C70-AAC2-89D45DD9FC98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{ADCA341A-4E0F-4BB9-A3C6-15925139F377}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{ADCA341A-4E0F-4BB9-A3C6-15925139F377}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="305">
   <si>
     <t>Classes</t>
   </si>
@@ -271,9 +271,6 @@
   </si>
   <si>
     <t>11ef7bf4-d978-126e-add7-ae7b87f820b4</t>
-  </si>
-  <si>
-    <t>Glutinosa</t>
   </si>
   <si>
     <t>11ef7412-b345-a193-bd98-ae7b87f820b4</t>
@@ -947,10 +944,17 @@
     <t>Download link - unflitered data</t>
   </si>
   <si>
-    <t>Contact - filtered datasets</t>
-  </si>
-  <si>
     <t>Number events after filtering</t>
+  </si>
+  <si>
+    <t>sempervirens</t>
+  </si>
+  <si>
+    <t>glutinosa</t>
+  </si>
+  <si>
+    <t>Filtered datasets: 
+download link upon request</t>
   </si>
 </sst>
 </file>
@@ -1022,7 +1026,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1051,9 +1055,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1384,26 +1385,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{999AFB84-22A3-489E-8708-BF31DDE74733}">
   <dimension ref="A1:AD106"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="9" style="4"/>
-    <col min="4" max="4" width="30.625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="32.375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="11.125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="30.59765625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="32.3984375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="11.09765625" style="4" customWidth="1"/>
     <col min="7" max="7" width="9" style="4"/>
     <col min="8" max="8" width="14.5" style="4" customWidth="1"/>
     <col min="9" max="9" width="9" style="4"/>
-    <col min="10" max="10" width="35.875" style="14" customWidth="1"/>
-    <col min="11" max="11" width="22.375" style="3" customWidth="1"/>
-    <col min="12" max="12" width="20.25" style="3" customWidth="1"/>
+    <col min="10" max="10" width="35.8984375" style="13" customWidth="1"/>
+    <col min="11" max="11" width="22.3984375" style="3" customWidth="1"/>
+    <col min="12" max="12" width="20.19921875" style="3" customWidth="1"/>
     <col min="13" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="60" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1414,31 +1415,31 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>297</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>298</v>
       </c>
       <c r="I1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="12" t="s">
-        <v>302</v>
+      <c r="J1" s="1" t="s">
+        <v>304</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
@@ -1459,7 +1460,7 @@
       <c r="AC1" s="2"/>
       <c r="AD1" s="2"/>
     </row>
-    <row r="2" spans="1:30" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>68</v>
       </c>
@@ -1471,7 +1472,7 @@
         <v>75</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F2" s="6">
         <v>26123</v>
@@ -1485,13 +1486,13 @@
       <c r="I2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="K2" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="L2" s="15"/>
+      <c r="J2" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="L2" s="14"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -1511,7 +1512,7 @@
       <c r="AC2" s="2"/>
       <c r="AD2" s="2"/>
     </row>
-    <row r="3" spans="1:30" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>68</v>
       </c>
@@ -1523,7 +1524,7 @@
         <v>77</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F3" s="6">
         <v>26692</v>
@@ -1537,13 +1538,13 @@
       <c r="I3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="K3" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="L3" s="15"/>
+      <c r="J3" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="K3" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="L3" s="14"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1563,7 +1564,7 @@
       <c r="AC3" s="2"/>
       <c r="AD3" s="2"/>
     </row>
-    <row r="4" spans="1:30" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>68</v>
       </c>
@@ -1571,13 +1572,13 @@
         <v>68</v>
       </c>
       <c r="C4" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>79</v>
-      </c>
       <c r="E4" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F4" s="6">
         <v>9419</v>
@@ -1591,13 +1592,13 @@
       <c r="I4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="K4" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="L4" s="15"/>
+      <c r="J4" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="K4" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="L4" s="14"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1617,7 +1618,7 @@
       <c r="AC4" s="2"/>
       <c r="AD4" s="2"/>
     </row>
-    <row r="5" spans="1:30" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>68</v>
       </c>
@@ -1626,10 +1627,10 @@
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F5" s="6">
         <v>9743</v>
@@ -1643,13 +1644,13 @@
       <c r="I5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="K5" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="L5" s="15"/>
+      <c r="J5" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="K5" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="L5" s="14"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -1669,7 +1670,7 @@
       <c r="AC5" s="2"/>
       <c r="AD5" s="2"/>
     </row>
-    <row r="6" spans="1:30" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>68</v>
       </c>
@@ -1695,11 +1696,11 @@
       <c r="I6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
+      <c r="J6" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -1719,14 +1720,16 @@
       <c r="AC6" s="2"/>
       <c r="AD6" s="2"/>
     </row>
-    <row r="7" spans="1:30" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>68</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="6"/>
+      <c r="C7" s="6" t="s">
+        <v>303</v>
+      </c>
       <c r="D7" s="6" t="s">
         <v>73</v>
       </c>
@@ -1745,11 +1748,11 @@
       <c r="I7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
+      <c r="J7" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -1769,7 +1772,7 @@
       <c r="AC7" s="2"/>
       <c r="AD7" s="2"/>
     </row>
-    <row r="8" spans="1:30" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>68</v>
       </c>
@@ -1790,16 +1793,16 @@
         <v>2</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
+      <c r="J8" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
@@ -1819,21 +1822,21 @@
       <c r="AC8" s="2"/>
       <c r="AD8" s="2"/>
     </row>
-    <row r="9" spans="1:30" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C9" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>89</v>
-      </c>
       <c r="E9" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F9" s="6">
         <v>16265</v>
@@ -1847,13 +1850,13 @@
       <c r="I9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J9" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="K9" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="L9" s="15"/>
+      <c r="J9" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="K9" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="L9" s="14"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -1873,21 +1876,21 @@
       <c r="AC9" s="2"/>
       <c r="AD9" s="2"/>
     </row>
-    <row r="10" spans="1:30" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F10" s="6">
         <v>24191</v>
@@ -1901,13 +1904,13 @@
       <c r="I10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J10" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="K10" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="L10" s="15"/>
+      <c r="J10" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="K10" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="L10" s="14"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -1927,21 +1930,21 @@
       <c r="AC10" s="2"/>
       <c r="AD10" s="2"/>
     </row>
-    <row r="11" spans="1:30" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F11" s="6">
         <v>17824</v>
@@ -1955,13 +1958,13 @@
       <c r="I11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J11" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="K11" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="L11" s="15"/>
+      <c r="J11" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="K11" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="L11" s="14"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -1981,21 +1984,21 @@
       <c r="AC11" s="2"/>
       <c r="AD11" s="2"/>
     </row>
-    <row r="12" spans="1:30" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F12" s="6">
         <v>19232</v>
@@ -2009,13 +2012,13 @@
       <c r="I12" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J12" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="K12" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="L12" s="15"/>
+      <c r="J12" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="K12" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="L12" s="14"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -2035,19 +2038,21 @@
       <c r="AC12" s="2"/>
       <c r="AD12" s="2"/>
     </row>
-    <row r="13" spans="1:30" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C13" s="6"/>
+        <v>80</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>87</v>
+      </c>
       <c r="D13" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>84</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>85</v>
       </c>
       <c r="F13" s="6">
         <v>2173</v>
@@ -2056,16 +2061,16 @@
         <v>4</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I13" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J13" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
+      <c r="J13" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -2085,19 +2090,21 @@
       <c r="AC13" s="2"/>
       <c r="AD13" s="2"/>
     </row>
-    <row r="14" spans="1:30" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6" t="s">
+      <c r="E14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="F14" s="6">
         <v>5770</v>
@@ -2106,16 +2113,16 @@
         <v>2</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I14" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J14" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
+      <c r="J14" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2135,19 +2142,21 @@
       <c r="AC14" s="2"/>
       <c r="AD14" s="2"/>
     </row>
-    <row r="15" spans="1:30" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C15" s="6"/>
+        <v>80</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>87</v>
+      </c>
       <c r="D15" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E15" s="6" t="s">
         <v>86</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>87</v>
       </c>
       <c r="F15" s="6">
         <v>6533</v>
@@ -2156,16 +2165,16 @@
         <v>4</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I15" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J15" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
+      <c r="J15" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -2185,19 +2194,21 @@
       <c r="AC15" s="2"/>
       <c r="AD15" s="2"/>
     </row>
-    <row r="16" spans="1:30" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C16" s="6"/>
+        <v>92</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>101</v>
+      </c>
       <c r="D16" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="E16" s="6" t="s">
         <v>98</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>99</v>
       </c>
       <c r="F16" s="6">
         <v>395</v>
@@ -2211,11 +2222,11 @@
       <c r="I16" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J16" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
+      <c r="J16" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -2235,19 +2246,21 @@
       <c r="AC16" s="2"/>
       <c r="AD16" s="2"/>
     </row>
-    <row r="17" spans="1:30" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:30" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C17" s="6"/>
+        <v>92</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>101</v>
+      </c>
       <c r="D17" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="E17" s="6" t="s">
         <v>96</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>97</v>
       </c>
       <c r="F17" s="6">
         <v>545</v>
@@ -2261,11 +2274,11 @@
       <c r="I17" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J17" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
+      <c r="J17" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -2285,19 +2298,21 @@
       <c r="AC17" s="2"/>
       <c r="AD17" s="2"/>
     </row>
-    <row r="18" spans="1:30" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:30" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C18" s="6"/>
+        <v>92</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>101</v>
+      </c>
       <c r="D18" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E18" s="6" t="s">
         <v>100</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>101</v>
       </c>
       <c r="F18" s="6">
         <v>643</v>
@@ -2311,11 +2326,11 @@
       <c r="I18" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J18" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
+      <c r="J18" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -2335,19 +2350,21 @@
       <c r="AC18" s="2"/>
       <c r="AD18" s="2"/>
     </row>
-    <row r="19" spans="1:30" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:30" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6" t="s">
+      <c r="E19" s="6" t="s">
         <v>94</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>95</v>
       </c>
       <c r="F19" s="6">
         <v>664</v>
@@ -2361,11 +2378,11 @@
       <c r="I19" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J19" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15"/>
+      <c r="J19" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -2385,21 +2402,21 @@
       <c r="AC19" s="2"/>
       <c r="AD19" s="2"/>
     </row>
-    <row r="20" spans="1:30" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:30" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C20" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D20" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="D20" s="6" t="s">
-        <v>103</v>
-      </c>
       <c r="E20" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F20" s="6">
         <v>12834</v>
@@ -2413,29 +2430,29 @@
       <c r="I20" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J20" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="K20" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="L20" s="13"/>
-    </row>
-    <row r="21" spans="1:30" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="J20" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="K20" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="L20" s="12"/>
+    </row>
+    <row r="21" spans="1:30" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F21" s="6">
         <v>13519</v>
@@ -2449,27 +2466,29 @@
       <c r="I21" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J21" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="K21" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="L21" s="13"/>
-    </row>
-    <row r="22" spans="1:30" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="J21" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="K21" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="L21" s="12"/>
+    </row>
+    <row r="22" spans="1:30" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="C22" s="6"/>
+        <v>104</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>111</v>
+      </c>
       <c r="D22" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E22" s="6" t="s">
         <v>122</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>123</v>
       </c>
       <c r="F22" s="6">
         <v>500</v>
@@ -2483,27 +2502,27 @@
       <c r="I22" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J22" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="K22" s="15"/>
-      <c r="L22" s="13"/>
-    </row>
-    <row r="23" spans="1:30" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="J22" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="K22" s="14"/>
+      <c r="L22" s="12"/>
+    </row>
+    <row r="23" spans="1:30" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="B23" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="C23" s="6" t="s">
+      <c r="D23" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="D23" s="6" t="s">
-        <v>107</v>
-      </c>
       <c r="E23" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F23" s="6">
         <v>30880</v>
@@ -2517,29 +2536,29 @@
       <c r="I23" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J23" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="K23" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="L23" s="13"/>
-    </row>
-    <row r="24" spans="1:30" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="J23" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="K23" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="L23" s="12"/>
+    </row>
+    <row r="24" spans="1:30" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>106</v>
-      </c>
       <c r="D24" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F24" s="6">
         <v>23519</v>
@@ -2553,29 +2572,29 @@
       <c r="I24" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J24" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="K24" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="L24" s="13"/>
-    </row>
-    <row r="25" spans="1:30" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="J24" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="K24" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="L24" s="12"/>
+    </row>
+    <row r="25" spans="1:30" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C25" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="B25" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>106</v>
-      </c>
       <c r="D25" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="E25" s="6" t="s">
         <v>109</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>110</v>
       </c>
       <c r="F25" s="6">
         <v>16461</v>
@@ -2589,29 +2608,29 @@
       <c r="I25" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J25" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="K25" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="L25" s="13"/>
-    </row>
-    <row r="26" spans="1:30" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="J25" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="K25" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="L25" s="12"/>
+    </row>
+    <row r="26" spans="1:30" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="B26" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>106</v>
-      </c>
       <c r="D26" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F26" s="6">
         <v>16284</v>
@@ -2625,29 +2644,29 @@
       <c r="I26" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J26" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="K26" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="L26" s="13"/>
-    </row>
-    <row r="27" spans="1:30" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="J26" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="K26" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="L26" s="12"/>
+    </row>
+    <row r="27" spans="1:30" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C27" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D27" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="D27" s="6" t="s">
-        <v>113</v>
-      </c>
       <c r="E27" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F27" s="6">
         <v>14700</v>
@@ -2661,29 +2680,29 @@
       <c r="I27" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J27" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="K27" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="L27" s="13"/>
-    </row>
-    <row r="28" spans="1:30" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="J27" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="K27" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="L27" s="12"/>
+    </row>
+    <row r="28" spans="1:30" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F28" s="6">
         <v>18110</v>
@@ -2697,29 +2716,29 @@
       <c r="I28" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J28" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="K28" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="L28" s="13"/>
-    </row>
-    <row r="29" spans="1:30" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="J28" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="K28" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="L28" s="12"/>
+    </row>
+    <row r="29" spans="1:30" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F29" s="6">
         <v>14352</v>
@@ -2733,29 +2752,29 @@
       <c r="I29" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J29" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="K29" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="L29" s="13"/>
-    </row>
-    <row r="30" spans="1:30" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="J29" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="K29" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="L29" s="12"/>
+    </row>
+    <row r="30" spans="1:30" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>38</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F30" s="6">
         <v>15270</v>
@@ -2769,29 +2788,29 @@
       <c r="I30" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J30" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="K30" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="L30" s="13"/>
-    </row>
-    <row r="31" spans="1:30" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="J30" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="K30" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="L30" s="12"/>
+    </row>
+    <row r="31" spans="1:30" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F31" s="6">
         <v>10153</v>
@@ -2805,29 +2824,29 @@
       <c r="I31" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J31" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="K31" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="L31" s="13"/>
-    </row>
-    <row r="32" spans="1:30" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="J31" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="K31" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="L31" s="12"/>
+    </row>
+    <row r="32" spans="1:30" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F32" s="6">
         <v>21586</v>
@@ -2841,29 +2860,29 @@
       <c r="I32" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J32" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="K32" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="L32" s="13"/>
-    </row>
-    <row r="33" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="J32" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="K32" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="L32" s="12"/>
+    </row>
+    <row r="33" spans="1:12" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F33" s="6">
         <v>11246</v>
@@ -2877,29 +2896,29 @@
       <c r="I33" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J33" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="K33" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="L33" s="13"/>
-    </row>
-    <row r="34" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="J33" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="K33" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="L33" s="12"/>
+    </row>
+    <row r="34" spans="1:12" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C34" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="B34" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>106</v>
-      </c>
       <c r="D34" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F34" s="6">
         <v>16366</v>
@@ -2908,32 +2927,34 @@
         <v>27</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I34" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J34" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="K34" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="L34" s="13"/>
-    </row>
-    <row r="35" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="J34" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="K34" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="L34" s="12"/>
+    </row>
+    <row r="35" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="C35" s="6"/>
+        <v>104</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>111</v>
+      </c>
       <c r="D35" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="E35" s="6" t="s">
         <v>126</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>127</v>
       </c>
       <c r="F35" s="6">
         <v>3578</v>
@@ -2947,25 +2968,27 @@
       <c r="I35" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J35" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="K35" s="15"/>
-      <c r="L35" s="13"/>
-    </row>
-    <row r="36" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="J35" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="K35" s="14"/>
+      <c r="L35" s="12"/>
+    </row>
+    <row r="36" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="C36" s="6"/>
+        <v>104</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>111</v>
+      </c>
       <c r="D36" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="E36" s="6" t="s">
         <v>124</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>125</v>
       </c>
       <c r="F36" s="6">
         <v>3736</v>
@@ -2979,25 +3002,27 @@
       <c r="I36" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J36" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="K36" s="15"/>
-      <c r="L36" s="13"/>
-    </row>
-    <row r="37" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="J36" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="K36" s="14"/>
+      <c r="L36" s="12"/>
+    </row>
+    <row r="37" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="C37" s="6"/>
+        <v>131</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>302</v>
+      </c>
       <c r="D37" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="E37" s="6" t="s">
         <v>137</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>138</v>
       </c>
       <c r="F37" s="6">
         <v>421</v>
@@ -3011,25 +3036,27 @@
       <c r="I37" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J37" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="K37" s="15"/>
-      <c r="L37" s="13"/>
-    </row>
-    <row r="38" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="J37" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="K37" s="14"/>
+      <c r="L37" s="12"/>
+    </row>
+    <row r="38" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="C38" s="6"/>
+        <v>131</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>302</v>
+      </c>
       <c r="D38" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="E38" s="6" t="s">
         <v>135</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>136</v>
       </c>
       <c r="F38" s="6">
         <v>583</v>
@@ -3043,27 +3070,27 @@
       <c r="I38" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J38" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="K38" s="15"/>
-      <c r="L38" s="13"/>
-    </row>
-    <row r="39" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="J38" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="K38" s="14"/>
+      <c r="L38" s="12"/>
+    </row>
+    <row r="39" spans="1:12" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B39" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="C39" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="D39" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="D39" s="6" t="s">
-        <v>131</v>
-      </c>
       <c r="E39" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F39" s="6">
         <v>16266</v>
@@ -3077,29 +3104,29 @@
       <c r="I39" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J39" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="K39" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="L39" s="13"/>
-    </row>
-    <row r="40" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="J39" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="K39" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="L39" s="12"/>
+    </row>
+    <row r="40" spans="1:12" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C40" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D40" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="D40" s="6" t="s">
-        <v>140</v>
-      </c>
       <c r="E40" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F40" s="6">
         <v>7895</v>
@@ -3108,34 +3135,34 @@
         <v>3</v>
       </c>
       <c r="H40" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="I40" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="I40" s="6" t="s">
+      <c r="J40" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="K40" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="L40" s="12"/>
+    </row>
+    <row r="41" spans="1:12" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D41" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="J40" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="K40" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="L40" s="13"/>
-    </row>
-    <row r="41" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>143</v>
-      </c>
       <c r="E41" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F41" s="6">
         <v>5428</v>
@@ -3144,32 +3171,34 @@
         <v>3</v>
       </c>
       <c r="H41" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="I41" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="I41" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="J41" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="K41" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="L41" s="13"/>
-    </row>
-    <row r="42" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="J41" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="K41" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="L41" s="12"/>
+    </row>
+    <row r="42" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B42" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="D42" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6" t="s">
+      <c r="E42" s="6" t="s">
         <v>133</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>134</v>
       </c>
       <c r="F42" s="6">
         <v>2340</v>
@@ -3183,27 +3212,27 @@
       <c r="I42" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J42" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="K42" s="15"/>
-      <c r="L42" s="13"/>
-    </row>
-    <row r="43" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="J42" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="K42" s="14"/>
+      <c r="L42" s="12"/>
+    </row>
+    <row r="43" spans="1:12" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C43" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="B43" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="C43" s="6" t="s">
+      <c r="D43" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="D43" s="6" t="s">
-        <v>146</v>
-      </c>
       <c r="E43" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F43" s="6">
         <v>4012</v>
@@ -3217,27 +3246,27 @@
       <c r="I43" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J43" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="K43" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="L43" s="13"/>
-    </row>
-    <row r="44" spans="1:12" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J43" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="K43" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="L43" s="12"/>
+    </row>
+    <row r="44" spans="1:12" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C44" s="6"/>
       <c r="D44" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F44" s="6">
         <v>7418</v>
@@ -3246,32 +3275,34 @@
         <v>15</v>
       </c>
       <c r="H44" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="I44" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="I44" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="J44" s="16" t="s">
-        <v>300</v>
-      </c>
-      <c r="K44" s="13"/>
+      <c r="J44" s="15" t="s">
+        <v>299</v>
+      </c>
+      <c r="K44" s="12"/>
       <c r="L44" s="6" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C45" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="B45" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="C45" s="6"/>
       <c r="D45" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="E45" s="6" t="s">
         <v>149</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>150</v>
       </c>
       <c r="F45" s="6">
         <v>2759</v>
@@ -3280,30 +3311,32 @@
         <v>4</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I45" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J45" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="K45" s="15"/>
-      <c r="L45" s="13"/>
-    </row>
-    <row r="46" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="J45" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="K45" s="14"/>
+      <c r="L45" s="12"/>
+    </row>
+    <row r="46" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C46" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="B46" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="C46" s="6"/>
       <c r="D46" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="E46" s="6" t="s">
         <v>147</v>
-      </c>
-      <c r="E46" s="6" t="s">
-        <v>148</v>
       </c>
       <c r="F46" s="6">
         <v>3410</v>
@@ -3312,30 +3345,32 @@
         <v>2</v>
       </c>
       <c r="H46" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I46" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J46" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="K46" s="15"/>
-      <c r="L46" s="13"/>
-    </row>
-    <row r="47" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="J46" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="K46" s="14"/>
+      <c r="L46" s="12"/>
+    </row>
+    <row r="47" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C47" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="B47" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="C47" s="6"/>
       <c r="D47" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="E47" s="6" t="s">
         <v>151</v>
-      </c>
-      <c r="E47" s="6" t="s">
-        <v>152</v>
       </c>
       <c r="F47" s="6">
         <v>4143</v>
@@ -3344,32 +3379,32 @@
         <v>5</v>
       </c>
       <c r="H47" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I47" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J47" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="K47" s="15"/>
-      <c r="L47" s="13"/>
-    </row>
-    <row r="48" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="J47" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="K47" s="14"/>
+      <c r="L47" s="12"/>
+    </row>
+    <row r="48" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C48" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="B48" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>157</v>
-      </c>
       <c r="D48" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="E48" s="6" t="s">
         <v>162</v>
-      </c>
-      <c r="E48" s="6" t="s">
-        <v>163</v>
       </c>
       <c r="F48" s="6">
         <v>1712</v>
@@ -3383,27 +3418,27 @@
       <c r="I48" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J48" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="K48" s="15"/>
-      <c r="L48" s="13"/>
-    </row>
-    <row r="49" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="J48" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="K48" s="14"/>
+      <c r="L48" s="12"/>
+    </row>
+    <row r="49" spans="1:12" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C49" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="B49" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="C49" s="6" t="s">
+      <c r="D49" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="D49" s="6" t="s">
+      <c r="E49" s="6" t="s">
         <v>158</v>
-      </c>
-      <c r="E49" s="6" t="s">
-        <v>159</v>
       </c>
       <c r="F49" s="6">
         <v>15276</v>
@@ -3417,29 +3452,29 @@
       <c r="I49" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J49" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="K49" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="L49" s="13"/>
-    </row>
-    <row r="50" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="J49" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="K49" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="L49" s="12"/>
+    </row>
+    <row r="50" spans="1:12" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C50" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="B50" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>157</v>
-      </c>
       <c r="D50" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="E50" s="6" t="s">
         <v>160</v>
-      </c>
-      <c r="E50" s="6" t="s">
-        <v>161</v>
       </c>
       <c r="F50" s="6">
         <v>9141</v>
@@ -3453,29 +3488,29 @@
       <c r="I50" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J50" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="K50" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="L50" s="13"/>
-    </row>
-    <row r="51" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="J50" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="K50" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="L50" s="12"/>
+    </row>
+    <row r="51" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C51" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="B51" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>157</v>
-      </c>
       <c r="D51" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="E51" s="6" t="s">
         <v>164</v>
-      </c>
-      <c r="E51" s="6" t="s">
-        <v>165</v>
       </c>
       <c r="F51" s="6">
         <v>2621</v>
@@ -3489,27 +3524,27 @@
       <c r="I51" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J51" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="K51" s="15"/>
-      <c r="L51" s="13"/>
-    </row>
-    <row r="52" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="J51" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="K51" s="14"/>
+      <c r="L51" s="12"/>
+    </row>
+    <row r="52" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C52" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="B52" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>157</v>
-      </c>
       <c r="D52" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="E52" s="6" t="s">
         <v>166</v>
-      </c>
-      <c r="E52" s="6" t="s">
-        <v>167</v>
       </c>
       <c r="F52" s="6">
         <v>5703</v>
@@ -3523,13 +3558,13 @@
       <c r="I52" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J52" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="K52" s="15"/>
-      <c r="L52" s="13"/>
-    </row>
-    <row r="53" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="J52" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="K52" s="14"/>
+      <c r="L52" s="12"/>
+    </row>
+    <row r="53" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
         <v>4</v>
       </c>
@@ -3550,18 +3585,18 @@
         <v>2</v>
       </c>
       <c r="H53" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I53" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J53" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="K53" s="15"/>
-      <c r="L53" s="13"/>
-    </row>
-    <row r="54" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="J53" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="K53" s="14"/>
+      <c r="L53" s="12"/>
+    </row>
+    <row r="54" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
         <v>4</v>
       </c>
@@ -3582,18 +3617,18 @@
         <v>5</v>
       </c>
       <c r="H54" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I54" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J54" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="K54" s="15"/>
-      <c r="L54" s="13"/>
-    </row>
-    <row r="55" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="J54" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="K54" s="14"/>
+      <c r="L54" s="12"/>
+    </row>
+    <row r="55" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
         <v>4</v>
       </c>
@@ -3614,18 +3649,18 @@
         <v>4</v>
       </c>
       <c r="H55" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I55" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J55" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="K55" s="15"/>
-      <c r="L55" s="13"/>
-    </row>
-    <row r="56" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="J55" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="K55" s="14"/>
+      <c r="L55" s="12"/>
+    </row>
+    <row r="56" spans="1:12" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
         <v>4</v>
       </c>
@@ -3639,7 +3674,7 @@
         <v>7</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F56" s="6">
         <v>14356</v>
@@ -3653,15 +3688,15 @@
       <c r="I56" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J56" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="K56" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="L56" s="13"/>
-    </row>
-    <row r="57" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="J56" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="K56" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="L56" s="12"/>
+    </row>
+    <row r="57" spans="1:12" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
         <v>4</v>
       </c>
@@ -3675,7 +3710,7 @@
         <v>12</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F57" s="6">
         <v>9622</v>
@@ -3689,15 +3724,15 @@
       <c r="I57" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J57" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="K57" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="L57" s="13"/>
-    </row>
-    <row r="58" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="J57" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="K57" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="L57" s="12"/>
+    </row>
+    <row r="58" spans="1:12" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
         <v>4</v>
       </c>
@@ -3711,7 +3746,7 @@
         <v>16</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F58" s="6">
         <v>14373</v>
@@ -3725,15 +3760,15 @@
       <c r="I58" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J58" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="K58" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="L58" s="13"/>
-    </row>
-    <row r="59" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="J58" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="K58" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="L58" s="12"/>
+    </row>
+    <row r="59" spans="1:12" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
         <v>4</v>
       </c>
@@ -3747,7 +3782,7 @@
         <v>20</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F59" s="6">
         <v>10859</v>
@@ -3761,15 +3796,15 @@
       <c r="I59" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J59" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="K59" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="L59" s="13"/>
-    </row>
-    <row r="60" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="J59" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="K59" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="L59" s="12"/>
+    </row>
+    <row r="60" spans="1:12" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
         <v>4</v>
       </c>
@@ -3783,7 +3818,7 @@
         <v>22</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F60" s="6">
         <v>10343</v>
@@ -3797,15 +3832,15 @@
       <c r="I60" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J60" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="K60" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="L60" s="13"/>
-    </row>
-    <row r="61" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="J60" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="K60" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="L60" s="12"/>
+    </row>
+    <row r="61" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
         <v>4</v>
       </c>
@@ -3831,13 +3866,13 @@
       <c r="I61" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J61" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="K61" s="15"/>
-      <c r="L61" s="13"/>
-    </row>
-    <row r="62" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="J61" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="K61" s="14"/>
+      <c r="L61" s="12"/>
+    </row>
+    <row r="62" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
         <v>4</v>
       </c>
@@ -3863,27 +3898,27 @@
       <c r="I62" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J62" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="K62" s="15"/>
-      <c r="L62" s="13"/>
-    </row>
-    <row r="63" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="J62" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="K62" s="14"/>
+      <c r="L62" s="12"/>
+    </row>
+    <row r="63" spans="1:12" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="C63" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="B63" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="C63" s="6" t="s">
+      <c r="D63" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="D63" s="6" t="s">
-        <v>170</v>
-      </c>
       <c r="E63" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F63" s="6">
         <v>14386</v>
@@ -3897,27 +3932,27 @@
       <c r="I63" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J63" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="K63" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="L63" s="13"/>
-    </row>
-    <row r="64" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="J63" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="K63" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="L63" s="12"/>
+    </row>
+    <row r="64" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C64" s="6"/>
       <c r="D64" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="E64" s="6" t="s">
         <v>171</v>
-      </c>
-      <c r="E64" s="6" t="s">
-        <v>172</v>
       </c>
       <c r="F64" s="6">
         <v>5544</v>
@@ -3926,30 +3961,30 @@
         <v>2</v>
       </c>
       <c r="H64" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I64" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J64" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="K64" s="15"/>
-      <c r="L64" s="13"/>
-    </row>
-    <row r="65" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="J64" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="K64" s="14"/>
+      <c r="L64" s="12"/>
+    </row>
+    <row r="65" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C65" s="6"/>
       <c r="D65" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="E65" s="6" t="s">
         <v>173</v>
-      </c>
-      <c r="E65" s="6" t="s">
-        <v>174</v>
       </c>
       <c r="F65" s="6">
         <v>5603</v>
@@ -3958,18 +3993,18 @@
         <v>4</v>
       </c>
       <c r="H65" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I65" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J65" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="K65" s="15"/>
-      <c r="L65" s="13"/>
-    </row>
-    <row r="66" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="J65" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="K65" s="14"/>
+      <c r="L65" s="12"/>
+    </row>
+    <row r="66" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
         <v>33</v>
       </c>
@@ -3992,23 +4027,23 @@
         <v>4</v>
       </c>
       <c r="H66" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I66" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J66" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="K66" s="15"/>
-      <c r="L66" s="13"/>
-    </row>
-    <row r="67" spans="1:12" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="J66" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="K66" s="14"/>
+      <c r="L66" s="12"/>
+    </row>
+    <row r="67" spans="1:12" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
         <v>33</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C67" s="6"/>
       <c r="D67" s="6" t="s">
@@ -4024,18 +4059,18 @@
         <v>2</v>
       </c>
       <c r="H67" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I67" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J67" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="K67" s="15"/>
-      <c r="L67" s="13"/>
-    </row>
-    <row r="68" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="J67" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="K67" s="14"/>
+      <c r="L67" s="12"/>
+    </row>
+    <row r="68" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
         <v>33</v>
       </c>
@@ -4043,7 +4078,7 @@
         <v>46</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D68" s="6" t="s">
         <v>58</v>
@@ -4058,23 +4093,23 @@
         <v>19</v>
       </c>
       <c r="H68" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I68" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J68" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="K68" s="15"/>
-      <c r="L68" s="13"/>
-    </row>
-    <row r="69" spans="1:12" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="J68" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="K68" s="14"/>
+      <c r="L68" s="12"/>
+    </row>
+    <row r="69" spans="1:12" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
         <v>33</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C69" s="6"/>
       <c r="D69" s="6" t="s">
@@ -4090,18 +4125,18 @@
         <v>5</v>
       </c>
       <c r="H69" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I69" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J69" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="K69" s="15"/>
-      <c r="L69" s="13"/>
-    </row>
-    <row r="70" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="J69" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="K69" s="14"/>
+      <c r="L69" s="12"/>
+    </row>
+    <row r="70" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
         <v>33</v>
       </c>
@@ -4124,25 +4159,27 @@
         <v>4</v>
       </c>
       <c r="H70" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I70" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J70" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="K70" s="15"/>
-      <c r="L70" s="13"/>
-    </row>
-    <row r="71" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="J70" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="K70" s="14"/>
+      <c r="L70" s="12"/>
+    </row>
+    <row r="71" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
         <v>33</v>
       </c>
       <c r="B71" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C71" s="6"/>
+      <c r="C71" s="6" t="s">
+        <v>44</v>
+      </c>
       <c r="D71" s="6" t="s">
         <v>56</v>
       </c>
@@ -4161,13 +4198,13 @@
       <c r="I71" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J71" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="K71" s="15"/>
-      <c r="L71" s="13"/>
-    </row>
-    <row r="72" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="J71" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="K71" s="14"/>
+      <c r="L71" s="12"/>
+    </row>
+    <row r="72" spans="1:12" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
         <v>33</v>
       </c>
@@ -4181,7 +4218,7 @@
         <v>36</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F72" s="6">
         <v>9839</v>
@@ -4195,15 +4232,15 @@
       <c r="I72" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J72" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="K72" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="L72" s="13"/>
-    </row>
-    <row r="73" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="J72" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="K72" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="L72" s="12"/>
+    </row>
+    <row r="73" spans="1:12" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
         <v>33</v>
       </c>
@@ -4217,7 +4254,7 @@
         <v>39</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F73" s="6">
         <v>13344</v>
@@ -4231,15 +4268,15 @@
       <c r="I73" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J73" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="K73" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="L73" s="13"/>
-    </row>
-    <row r="74" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="J73" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="K73" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="L73" s="12"/>
+    </row>
+    <row r="74" spans="1:12" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
         <v>33</v>
       </c>
@@ -4253,7 +4290,7 @@
         <v>42</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F74" s="6">
         <v>9103</v>
@@ -4267,15 +4304,15 @@
       <c r="I74" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J74" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="K74" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="L74" s="13"/>
-    </row>
-    <row r="75" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="J74" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="K74" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="L74" s="12"/>
+    </row>
+    <row r="75" spans="1:12" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
         <v>33</v>
       </c>
@@ -4289,7 +4326,7 @@
         <v>45</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F75" s="6">
         <v>12312</v>
@@ -4303,15 +4340,15 @@
       <c r="I75" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J75" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="K75" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="L75" s="13"/>
-    </row>
-    <row r="76" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="J75" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="K75" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="L75" s="12"/>
+    </row>
+    <row r="76" spans="1:12" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
         <v>33</v>
       </c>
@@ -4325,7 +4362,7 @@
         <v>48</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F76" s="6">
         <v>11716</v>
@@ -4339,15 +4376,15 @@
       <c r="I76" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J76" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="K76" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="L76" s="13"/>
-    </row>
-    <row r="77" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="J76" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="K76" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="L76" s="12"/>
+    </row>
+    <row r="77" spans="1:12" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
         <v>33</v>
       </c>
@@ -4361,7 +4398,7 @@
         <v>49</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F77" s="6">
         <v>18883</v>
@@ -4375,15 +4412,15 @@
       <c r="I77" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J77" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="K77" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="L77" s="13"/>
-    </row>
-    <row r="78" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="J77" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="K77" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="L77" s="12"/>
+    </row>
+    <row r="78" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
         <v>33</v>
       </c>
@@ -4391,7 +4428,7 @@
         <v>60</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D78" s="6" t="s">
         <v>63</v>
@@ -4406,18 +4443,18 @@
         <v>4</v>
       </c>
       <c r="H78" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I78" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J78" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="K78" s="15"/>
-      <c r="L78" s="13"/>
-    </row>
-    <row r="79" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="J78" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="K78" s="14"/>
+      <c r="L78" s="12"/>
+    </row>
+    <row r="79" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
         <v>33</v>
       </c>
@@ -4425,7 +4462,7 @@
         <v>60</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D79" s="6" t="s">
         <v>61</v>
@@ -4440,30 +4477,30 @@
         <v>2</v>
       </c>
       <c r="H79" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I79" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J79" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="K79" s="15"/>
-      <c r="L79" s="13"/>
-    </row>
-    <row r="80" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="J79" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="K79" s="14"/>
+      <c r="L79" s="12"/>
+    </row>
+    <row r="80" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C80" s="6"/>
       <c r="D80" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="E80" s="6" t="s">
         <v>178</v>
-      </c>
-      <c r="E80" s="6" t="s">
-        <v>179</v>
       </c>
       <c r="F80" s="6">
         <v>508</v>
@@ -4472,30 +4509,30 @@
         <v>2</v>
       </c>
       <c r="H80" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I80" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J80" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="K80" s="15"/>
-      <c r="L80" s="13"/>
-    </row>
-    <row r="81" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="J80" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="K80" s="14"/>
+      <c r="L80" s="12"/>
+    </row>
+    <row r="81" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C81" s="6"/>
       <c r="D81" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="E81" s="6" t="s">
         <v>182</v>
-      </c>
-      <c r="E81" s="6" t="s">
-        <v>183</v>
       </c>
       <c r="F81" s="6">
         <v>657</v>
@@ -4504,30 +4541,30 @@
         <v>5</v>
       </c>
       <c r="H81" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I81" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J81" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="K81" s="15"/>
-      <c r="L81" s="13"/>
-    </row>
-    <row r="82" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="J81" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="K81" s="14"/>
+      <c r="L81" s="12"/>
+    </row>
+    <row r="82" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C82" s="6"/>
       <c r="D82" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="E82" s="6" t="s">
         <v>180</v>
-      </c>
-      <c r="E82" s="6" t="s">
-        <v>181</v>
       </c>
       <c r="F82" s="6">
         <v>2913</v>
@@ -4536,32 +4573,32 @@
         <v>4</v>
       </c>
       <c r="H82" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I82" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J82" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="K82" s="15"/>
-      <c r="L82" s="13"/>
-    </row>
-    <row r="83" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="J82" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="K82" s="14"/>
+      <c r="L82" s="12"/>
+    </row>
+    <row r="83" spans="1:12" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C83" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="B83" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="C83" s="6" t="s">
+      <c r="D83" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="D83" s="6" t="s">
-        <v>177</v>
-      </c>
       <c r="E83" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F83" s="6">
         <v>10313</v>
@@ -4570,32 +4607,34 @@
         <v>3</v>
       </c>
       <c r="H83" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="I83" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="I83" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="J83" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="K83" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="L83" s="13"/>
-    </row>
-    <row r="84" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="J83" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="K83" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="L83" s="12"/>
+    </row>
+    <row r="84" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="C84" s="6"/>
+        <v>183</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>187</v>
+      </c>
       <c r="D84" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="E84" s="6" t="s">
         <v>194</v>
-      </c>
-      <c r="E84" s="6" t="s">
-        <v>195</v>
       </c>
       <c r="F84" s="6">
         <v>2519</v>
@@ -4609,25 +4648,27 @@
       <c r="I84" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J84" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="K84" s="15"/>
-      <c r="L84" s="13"/>
-    </row>
-    <row r="85" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="J84" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="K84" s="14"/>
+      <c r="L84" s="12"/>
+    </row>
+    <row r="85" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="C85" s="6"/>
+        <v>183</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>187</v>
+      </c>
       <c r="D85" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="E85" s="6" t="s">
         <v>192</v>
-      </c>
-      <c r="E85" s="6" t="s">
-        <v>193</v>
       </c>
       <c r="F85" s="6">
         <v>3824</v>
@@ -4641,25 +4682,27 @@
       <c r="I85" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J85" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="K85" s="15"/>
-      <c r="L85" s="13"/>
-    </row>
-    <row r="86" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="J85" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="K85" s="14"/>
+      <c r="L85" s="12"/>
+    </row>
+    <row r="86" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="C86" s="6"/>
+        <v>183</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>187</v>
+      </c>
       <c r="D86" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="E86" s="6" t="s">
         <v>190</v>
-      </c>
-      <c r="E86" s="6" t="s">
-        <v>191</v>
       </c>
       <c r="F86" s="6">
         <v>4768</v>
@@ -4673,27 +4716,27 @@
       <c r="I86" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J86" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="K86" s="15"/>
-      <c r="L86" s="13"/>
-    </row>
-    <row r="87" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="J86" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="K86" s="14"/>
+      <c r="L86" s="12"/>
+    </row>
+    <row r="87" spans="1:12" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="C87" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="B87" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="C87" s="6" t="s">
+      <c r="D87" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="D87" s="6" t="s">
-        <v>186</v>
-      </c>
       <c r="E87" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F87" s="6">
         <v>27439</v>
@@ -4702,34 +4745,34 @@
         <v>19</v>
       </c>
       <c r="H87" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="I87" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J87" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="K87" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="L87" s="12"/>
+    </row>
+    <row r="88" spans="1:12" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A88" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="C88" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="I87" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="J87" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="K87" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="L87" s="13"/>
-    </row>
-    <row r="88" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A88" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="B88" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="C88" s="6" t="s">
+      <c r="D88" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="D88" s="6" t="s">
-        <v>189</v>
-      </c>
       <c r="E88" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F88" s="6">
         <v>6957</v>
@@ -4743,27 +4786,27 @@
       <c r="I88" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J88" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="K88" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="L88" s="13"/>
-    </row>
-    <row r="89" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="J88" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="K88" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="L88" s="12"/>
+    </row>
+    <row r="89" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C89" s="6"/>
       <c r="D89" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="E89" s="6" t="s">
         <v>200</v>
-      </c>
-      <c r="E89" s="6" t="s">
-        <v>201</v>
       </c>
       <c r="F89" s="6">
         <v>389</v>
@@ -4777,27 +4820,27 @@
       <c r="I89" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J89" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="K89" s="15"/>
-      <c r="L89" s="13" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="J89" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="K89" s="14"/>
+      <c r="L89" s="12" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C90" s="6"/>
       <c r="D90" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="E90" s="6" t="s">
         <v>202</v>
-      </c>
-      <c r="E90" s="6" t="s">
-        <v>203</v>
       </c>
       <c r="F90" s="6">
         <v>2786</v>
@@ -4811,27 +4854,27 @@
       <c r="I90" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J90" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="K90" s="15"/>
-      <c r="L90" s="13" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="J90" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="K90" s="14"/>
+      <c r="L90" s="12" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C91" s="6"/>
       <c r="D91" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="E91" s="6" t="s">
         <v>204</v>
-      </c>
-      <c r="E91" s="6" t="s">
-        <v>205</v>
       </c>
       <c r="F91" s="6">
         <v>3179</v>
@@ -4845,27 +4888,27 @@
       <c r="I91" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J91" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="K91" s="15"/>
-      <c r="L91" s="13" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="J91" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="K91" s="14"/>
+      <c r="L91" s="12" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C92" s="6"/>
       <c r="D92" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="E92" s="6" t="s">
         <v>206</v>
-      </c>
-      <c r="E92" s="6" t="s">
-        <v>207</v>
       </c>
       <c r="F92" s="6">
         <v>6202</v>
@@ -4874,32 +4917,32 @@
         <v>11</v>
       </c>
       <c r="H92" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I92" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J92" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="K92" s="15"/>
-      <c r="L92" s="13" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="J92" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="K92" s="14"/>
+      <c r="L92" s="12" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C93" s="6"/>
       <c r="D93" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="E93" s="6" t="s">
         <v>208</v>
-      </c>
-      <c r="E93" s="6" t="s">
-        <v>209</v>
       </c>
       <c r="F93" s="6">
         <v>408</v>
@@ -4908,32 +4951,32 @@
         <v>5</v>
       </c>
       <c r="H93" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I93" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J93" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="K93" s="15"/>
-      <c r="L93" s="13" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="J93" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="K93" s="14"/>
+      <c r="L93" s="12" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C94" s="6"/>
       <c r="D94" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="E94" s="6" t="s">
         <v>210</v>
-      </c>
-      <c r="E94" s="6" t="s">
-        <v>211</v>
       </c>
       <c r="F94" s="6">
         <v>1878</v>
@@ -4942,32 +4985,32 @@
         <v>33</v>
       </c>
       <c r="H94" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I94" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J94" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="K94" s="15"/>
-      <c r="L94" s="13" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="J94" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="K94" s="14"/>
+      <c r="L94" s="12" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C95" s="6"/>
       <c r="D95" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="E95" s="6" t="s">
         <v>212</v>
-      </c>
-      <c r="E95" s="6" t="s">
-        <v>213</v>
       </c>
       <c r="F95" s="6">
         <v>1139</v>
@@ -4976,32 +5019,32 @@
         <v>33</v>
       </c>
       <c r="H95" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I95" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J95" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="K95" s="15"/>
-      <c r="L95" s="13" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="J95" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="K95" s="14"/>
+      <c r="L95" s="12" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C96" s="6"/>
       <c r="D96" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="E96" s="6" t="s">
         <v>214</v>
-      </c>
-      <c r="E96" s="6" t="s">
-        <v>215</v>
       </c>
       <c r="F96" s="6">
         <v>2186</v>
@@ -5010,32 +5053,32 @@
         <v>33</v>
       </c>
       <c r="H96" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I96" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J96" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="K96" s="15"/>
-      <c r="L96" s="13" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="J96" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="K96" s="14"/>
+      <c r="L96" s="12" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C97" s="6"/>
       <c r="D97" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="E97" s="6" t="s">
         <v>216</v>
-      </c>
-      <c r="E97" s="6" t="s">
-        <v>217</v>
       </c>
       <c r="F97" s="6">
         <v>4245</v>
@@ -5044,32 +5087,32 @@
         <v>33</v>
       </c>
       <c r="H97" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I97" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J97" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="K97" s="15"/>
-      <c r="L97" s="13" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="J97" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="K97" s="14"/>
+      <c r="L97" s="12" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C98" s="6"/>
       <c r="D98" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="E98" s="6" t="s">
         <v>197</v>
-      </c>
-      <c r="E98" s="6" t="s">
-        <v>198</v>
       </c>
       <c r="F98" s="6">
         <v>7691</v>
@@ -5078,32 +5121,34 @@
         <v>16</v>
       </c>
       <c r="H98" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I98" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J98" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="K98" s="15"/>
-      <c r="L98" s="13" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="J98" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="K98" s="14"/>
+      <c r="L98" s="12" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="C99" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="B99" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="C99" s="6"/>
       <c r="D99" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="E99" s="6" t="s">
         <v>225</v>
-      </c>
-      <c r="E99" s="6" t="s">
-        <v>226</v>
       </c>
       <c r="F99" s="6">
         <v>3411</v>
@@ -5117,25 +5162,27 @@
       <c r="I99" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J99" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="K99" s="15"/>
-      <c r="L99" s="13"/>
-    </row>
-    <row r="100" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="J99" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="K99" s="14"/>
+      <c r="L99" s="12"/>
+    </row>
+    <row r="100" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="C100" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="B100" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="C100" s="6"/>
       <c r="D100" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="E100" s="6" t="s">
         <v>223</v>
-      </c>
-      <c r="E100" s="6" t="s">
-        <v>224</v>
       </c>
       <c r="F100" s="6">
         <v>4872</v>
@@ -5149,25 +5196,27 @@
       <c r="I100" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J100" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="K100" s="15"/>
-      <c r="L100" s="13"/>
-    </row>
-    <row r="101" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="J100" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="K100" s="14"/>
+      <c r="L100" s="12"/>
+    </row>
+    <row r="101" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="B101" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="C101" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="B101" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="C101" s="6"/>
       <c r="D101" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="E101" s="6" t="s">
         <v>221</v>
-      </c>
-      <c r="E101" s="6" t="s">
-        <v>222</v>
       </c>
       <c r="F101" s="6">
         <v>5593</v>
@@ -5181,27 +5230,27 @@
       <c r="I101" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J101" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="K101" s="15"/>
-      <c r="L101" s="13"/>
-    </row>
-    <row r="102" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="J101" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="K101" s="14"/>
+      <c r="L101" s="12"/>
+    </row>
+    <row r="102" spans="1:12" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="B102" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="C102" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="B102" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="C102" s="6" t="s">
+      <c r="D102" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="D102" s="6" t="s">
-        <v>220</v>
-      </c>
       <c r="E102" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F102" s="6">
         <v>57530</v>
@@ -5210,32 +5259,34 @@
         <v>27</v>
       </c>
       <c r="H102" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I102" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J102" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="K102" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="L102" s="13"/>
-    </row>
-    <row r="103" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="J102" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="K102" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="L102" s="12"/>
+    </row>
+    <row r="103" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A103" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="B103" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="C103" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="B103" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="C103" s="6"/>
       <c r="D103" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="E103" s="6" t="s">
         <v>234</v>
-      </c>
-      <c r="E103" s="6" t="s">
-        <v>235</v>
       </c>
       <c r="F103" s="6">
         <v>2392</v>
@@ -5249,25 +5300,27 @@
       <c r="I103" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J103" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="K103" s="15"/>
-      <c r="L103" s="13"/>
-    </row>
-    <row r="104" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="J103" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="K103" s="14"/>
+      <c r="L103" s="12"/>
+    </row>
+    <row r="104" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A104" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="B104" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="C104" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="B104" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="C104" s="6"/>
       <c r="D104" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="E104" s="6" t="s">
         <v>236</v>
-      </c>
-      <c r="E104" s="6" t="s">
-        <v>237</v>
       </c>
       <c r="F104" s="6">
         <v>3289</v>
@@ -5281,25 +5334,27 @@
       <c r="I104" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J104" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="K104" s="15"/>
-      <c r="L104" s="13"/>
-    </row>
-    <row r="105" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="J104" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="K104" s="14"/>
+      <c r="L104" s="12"/>
+    </row>
+    <row r="105" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A105" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="B105" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="C105" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="B105" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="C105" s="6"/>
       <c r="D105" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="E105" s="6" t="s">
         <v>232</v>
-      </c>
-      <c r="E105" s="6" t="s">
-        <v>233</v>
       </c>
       <c r="F105" s="6">
         <v>4844</v>
@@ -5313,27 +5368,27 @@
       <c r="I105" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J105" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="K105" s="15"/>
-      <c r="L105" s="13"/>
-    </row>
-    <row r="106" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="J105" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="K105" s="14"/>
+      <c r="L105" s="12"/>
+    </row>
+    <row r="106" spans="1:12" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="B106" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="C106" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="B106" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="C106" s="6" t="s">
+      <c r="D106" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="D106" s="6" t="s">
-        <v>229</v>
-      </c>
       <c r="E106" s="10" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F106" s="6">
         <v>9461</v>
@@ -5342,18 +5397,18 @@
         <v>57</v>
       </c>
       <c r="H106" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="I106" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="I106" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="J106" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="K106" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="L106" s="13"/>
+      <c r="J106" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="K106" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="L106" s="12"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:AD1" xr:uid="{999AFB84-22A3-489E-8708-BF31DDE74733}"/>
